--- a/output/fit_clients/fit_round_329.xlsx
+++ b/output/fit_clients/fit_round_329.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1899022057.789685</v>
+        <v>2213358249.800193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07328451836130638</v>
+        <v>0.07476639632959112</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03416235916508922</v>
+        <v>0.03972076727602212</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>949511010.9364258</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2089405714.283623</v>
+        <v>2445650379.696314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1293723466500919</v>
+        <v>0.1436447724146024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04616371035435648</v>
+        <v>0.04144994858908232</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1044702911.057626</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4057080746.596167</v>
+        <v>3622562041.073387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1108416713488817</v>
+        <v>0.117052283369847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02925799896631128</v>
+        <v>0.02986360814027378</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>118</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2028540391.522575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3334072434.808132</v>
+        <v>4033722291.695869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0901638837076537</v>
+        <v>0.07623222150435505</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03067855350666474</v>
+        <v>0.04505946487825815</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1667036265.181297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2843897620.5548</v>
+        <v>2613503383.272114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1201949913200202</v>
+        <v>0.0913632937330877</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05563073765975177</v>
+        <v>0.0349356439188712</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>63</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1421948748.548722</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2111630823.629045</v>
+        <v>2865808039.998785</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06756142022493454</v>
+        <v>0.09977830756270804</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03822959123801124</v>
+        <v>0.03163940984214722</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>102</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1055815462.283229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3585273246.836574</v>
+        <v>2690713860.713738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1672834500107769</v>
+        <v>0.1641979545577689</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03224745939393895</v>
+        <v>0.02565383074592825</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1792636740.768686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1644617981.538809</v>
+        <v>2192979762.439265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1758123896681769</v>
+        <v>0.1545611355573214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03141801530262767</v>
+        <v>0.03640066621247043</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>822309066.6926605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5745518856.907029</v>
+        <v>3787377717.060093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1536851705478186</v>
+        <v>0.2119333654438724</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03731835925486964</v>
+        <v>0.03484628829063879</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>138</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2872759585.497183</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2748346646.855669</v>
+        <v>4217561616.769959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1607292166866899</v>
+        <v>0.1805799913101651</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03059197333851931</v>
+        <v>0.04966998203715561</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>135</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1374173248.801587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2535367709.178491</v>
+        <v>2164130694.364522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1712555541966563</v>
+        <v>0.1768037854439267</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03975437776593469</v>
+        <v>0.04134938826612269</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>113</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1267683830.043936</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4213945363.241788</v>
+        <v>3791615650.289938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07318471539254218</v>
+        <v>0.08361955879750149</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02012531630775245</v>
+        <v>0.02735629354293606</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>110</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2106972725.688147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3222864217.372211</v>
+        <v>3594470061.798978</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1358424228795473</v>
+        <v>0.1245692903887393</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04143564113024522</v>
+        <v>0.04267711655123162</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1611432126.99336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1424024361.504623</v>
+        <v>1386516590.133766</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06762307130298091</v>
+        <v>0.08258639486401022</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0407698881151596</v>
+        <v>0.04661652415875965</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712012249.0401689</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1891613463.182425</v>
+        <v>2740238670.413317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.112583253874052</v>
+        <v>0.1104876923591279</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04598440147208457</v>
+        <v>0.03321859050448905</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>945806816.762156</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4720501544.299465</v>
+        <v>3488169810.794722</v>
       </c>
       <c r="F17" t="n">
-        <v>0.128275658045855</v>
+        <v>0.1661153437689423</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04521811246229831</v>
+        <v>0.04731122238949875</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2360250771.161655</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3705297441.459277</v>
+        <v>3680845935.420372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1595904271825643</v>
+        <v>0.1255972255667024</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02323212392741171</v>
+        <v>0.0254321873976135</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>107</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1852648699.889329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>997659002.5291364</v>
+        <v>1293957451.677819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810674016887022</v>
+        <v>0.1366051251040449</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02654585988383985</v>
+        <v>0.02202990342930444</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>498829529.9227289</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2305034589.154774</v>
+        <v>2079415378.867492</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1393971472749357</v>
+        <v>0.1499597607461387</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03032180048996518</v>
+        <v>0.02054640853114812</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1152517288.422945</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2202439556.145489</v>
+        <v>2157583860.725431</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09830323261994368</v>
+        <v>0.07376024138824537</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03787514119357276</v>
+        <v>0.03621904838436451</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1101219794.641796</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2499325427.83329</v>
+        <v>2480642498.039685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1097931543617705</v>
+        <v>0.1326853967226184</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03715144135734395</v>
+        <v>0.04646669809844467</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1249662805.43607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>995734837.9153281</v>
+        <v>1327617727.05174</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1494868424093496</v>
+        <v>0.116915406918162</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0406293170385657</v>
+        <v>0.04198593783149872</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>497867489.8536544</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3855560130.109907</v>
+        <v>4025563757.719267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.134351606184462</v>
+        <v>0.1408746477832544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02763705463287341</v>
+        <v>0.02710761593654941</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1927780042.772367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1431667563.391699</v>
+        <v>962065606.9773293</v>
       </c>
       <c r="F25" t="n">
-        <v>0.10402783946417</v>
+        <v>0.09651741324775114</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02898747220565694</v>
+        <v>0.02425669359937762</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>715833746.3724077</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1179106160.071837</v>
+        <v>1316914330.242711</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1245575323183902</v>
+        <v>0.1142041456924944</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0304031556697424</v>
+        <v>0.03907923136613296</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>589553096.0129589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3706857646.881079</v>
+        <v>3638281607.178058</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09765731859475478</v>
+        <v>0.1377851754083682</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02256124408800394</v>
+        <v>0.01930897198386318</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1853428848.145414</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2986155875.532506</v>
+        <v>2464364381.56992</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1277206038756186</v>
+        <v>0.1071860758306344</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03805481229667944</v>
+        <v>0.0438522853994724</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1493077947.797144</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5388357273.901056</v>
+        <v>5888763513.43593</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1419855402454345</v>
+        <v>0.1128052886742485</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04253724008682883</v>
+        <v>0.04424507128826372</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>145</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2694178557.612639</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2311982646.294362</v>
+        <v>2092159749.133685</v>
       </c>
       <c r="F30" t="n">
-        <v>0.121042728567179</v>
+        <v>0.133995102739631</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02757649229967664</v>
+        <v>0.03933998539595408</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1155991396.118595</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>965240084.3053823</v>
+        <v>1389817077.934195</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1106009896406002</v>
+        <v>0.09805247360405425</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03397526084219833</v>
+        <v>0.03386807673936217</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>482620048.8849972</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1592837815.684513</v>
+        <v>1417846323.726593</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09580981329913921</v>
+        <v>0.07495726865756068</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0370006301789541</v>
+        <v>0.02756280198730678</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>796418995.4056337</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2216381901.718996</v>
+        <v>3080696641.71869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1265948368452176</v>
+        <v>0.2042656400024227</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05494243310974026</v>
+        <v>0.05128427404658022</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1108191013.217732</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1386831244.231038</v>
+        <v>1248969283.931896</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08330579143388976</v>
+        <v>0.08858343692890838</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01771305430149709</v>
+        <v>0.0264090475460981</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>693415596.5082756</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>978036936.9874192</v>
+        <v>1023682186.223086</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09956546854994919</v>
+        <v>0.09368449968793557</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03519432487830983</v>
+        <v>0.03138235605586368</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>489018491.8821837</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2500359327.91765</v>
+        <v>2060880624.546601</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1650424049442546</v>
+        <v>0.172528363181544</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02150057045489859</v>
+        <v>0.02413947910622183</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>83</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1250179685.929468</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2872692190.908617</v>
+        <v>2149320949.325511</v>
       </c>
       <c r="F37" t="n">
-        <v>0.105503730374342</v>
+        <v>0.1113453983953147</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03005972943255845</v>
+        <v>0.02778653646541844</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1436346242.791634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1654112889.182097</v>
+        <v>1513235251.400734</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1119243487675676</v>
+        <v>0.09176527845850681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02642514462828384</v>
+        <v>0.02578138165233396</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>827056472.0813103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1776624416.720079</v>
+        <v>1692265928.156374</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1526637419072404</v>
+        <v>0.1804993112188172</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02731898911727772</v>
+        <v>0.02531236925051511</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>888312236.8046273</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1371849969.396858</v>
+        <v>1450721768.598969</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1129407297897546</v>
+        <v>0.1167941327035142</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03732373353280909</v>
+        <v>0.05373711833960639</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>685924982.9857136</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2906767725.183763</v>
+        <v>2160271403.915968</v>
       </c>
       <c r="F41" t="n">
-        <v>0.146559995888838</v>
+        <v>0.1218321375976228</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03496564400792118</v>
+        <v>0.03097138092532246</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>83</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1453383848.022264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4003245461.833076</v>
+        <v>2778953236.995067</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08664994776571902</v>
+        <v>0.09587652257114493</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03516120508657531</v>
+        <v>0.04514565142485165</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>107</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2001622760.442495</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2147569402.221077</v>
+        <v>2449719255.394577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1340310581393013</v>
+        <v>0.1982915440012751</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01748175679363793</v>
+        <v>0.01924492527041909</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>118</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1073784785.219195</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1747487373.60863</v>
+        <v>1443204593.563287</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09231723894249662</v>
+        <v>0.07974040789801361</v>
       </c>
       <c r="G44" t="n">
-        <v>0.022348116410928</v>
+        <v>0.03660567692223233</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>873743742.7569056</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1752492796.430088</v>
+        <v>1652718522.66507</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1262644325073468</v>
+        <v>0.1189990969815351</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05136542350485295</v>
+        <v>0.04247666100438008</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>876246364.1287252</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4380463785.063498</v>
+        <v>5327016655.270992</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1133193254137749</v>
+        <v>0.1505682080118049</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05408138491590491</v>
+        <v>0.04494576394117043</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>117</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2190231883.89009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4908967092.309589</v>
+        <v>3321425214.801858</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1714837171439536</v>
+        <v>0.1729517029806865</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04941207567000973</v>
+        <v>0.04756600642579017</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>88</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2454483596.779873</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4357329913.498843</v>
+        <v>3752665985.240535</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014982039871706</v>
+        <v>0.1041182183460473</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0350808416540761</v>
+        <v>0.02593085083261417</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2178664970.356652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1951111354.847019</v>
+        <v>1686248591.002317</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1926541301515543</v>
+        <v>0.1919035328320229</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03569225557197397</v>
+        <v>0.03614984154108808</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>975555639.3265587</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3083167517.614228</v>
+        <v>3564712682.674002</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1207690925366836</v>
+        <v>0.1353222107217073</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04280457929960697</v>
+        <v>0.03666062864949</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>112</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1541583812.74697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1438189265.883195</v>
+        <v>977673208.3384858</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1184936113939185</v>
+        <v>0.1775585848730641</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0400928120912178</v>
+        <v>0.03966784602219657</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>719094645.9020003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4752943862.261873</v>
+        <v>3563718547.043702</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1198972464195005</v>
+        <v>0.1013167543708525</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05769799036415173</v>
+        <v>0.05506857956812064</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>135</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2376471943.298773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3517928645.024774</v>
+        <v>3690985947.764319</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1879553105771238</v>
+        <v>0.1504614021816517</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03072598244471247</v>
+        <v>0.03191095220572535</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>95</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1758964319.221309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3893341005.450076</v>
+        <v>4094207339.302459</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1241492175536471</v>
+        <v>0.1385337118831022</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03549600988749698</v>
+        <v>0.04960283940053326</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1946670558.441983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4247353755.071145</v>
+        <v>4842836047.560658</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2076418078032819</v>
+        <v>0.1982436054318394</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02371644059142417</v>
+        <v>0.02287760291121045</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2123676863.38982</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1517397123.429968</v>
+        <v>1847387002.143098</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1606582138670707</v>
+        <v>0.107321813268922</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03847448020727534</v>
+        <v>0.04627679178824911</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>758698601.4196358</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2965854569.565271</v>
+        <v>4395226801.12219</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1746612163587323</v>
+        <v>0.1828922776454</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02348190634055395</v>
+        <v>0.02535903128378234</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>105</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1482927286.32387</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1285550099.841048</v>
+        <v>1516620768.029288</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1812024704418301</v>
+        <v>0.1481019997163024</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03924513545360531</v>
+        <v>0.02639569764547169</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>642775100.6319628</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3408628494.866735</v>
+        <v>3309312248.412707</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08827535240736993</v>
+        <v>0.09930760697478512</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04495368455499791</v>
+        <v>0.03914819087507622</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1704314251.91208</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3755326982.85418</v>
+        <v>3239112146.155176</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2002750473951426</v>
+        <v>0.14258955673722</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02755872943685257</v>
+        <v>0.03029523569385101</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1877663641.013073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2074583563.414713</v>
+        <v>2703341843.624185</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1314803267569561</v>
+        <v>0.1437485470113414</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02273833623190385</v>
+        <v>0.030947485715852</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>113</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1037291849.445658</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2071512606.057969</v>
+        <v>1697026928.696903</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1581464043598187</v>
+        <v>0.135097905806221</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0458587347634986</v>
+        <v>0.04512891346518985</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1035756371.844743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4189994401.859131</v>
+        <v>4847408411.536966</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08097170517892832</v>
+        <v>0.09483997444325434</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04147121726280734</v>
+        <v>0.03283517396906138</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>96</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2094997254.842239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5155302018.805003</v>
+        <v>4224264888.371425</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1336508923314248</v>
+        <v>0.1632880931028152</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03142191631442888</v>
+        <v>0.02723131972260845</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>102</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2577651126.519809</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5764981602.234521</v>
+        <v>5247734391.537582</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1161469653763673</v>
+        <v>0.142376723307215</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02015434747920407</v>
+        <v>0.02480113991520879</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2882490714.392806</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3810014779.205594</v>
+        <v>5260361900.336392</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1557432488731733</v>
+        <v>0.1536232866347336</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05024862007914753</v>
+        <v>0.048543380214277</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>96</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1905007352.984163</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2590238775.004942</v>
+        <v>3310938797.077982</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08480855929532155</v>
+        <v>0.0809036655130131</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0414868142520162</v>
+        <v>0.0334087303910957</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>105</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1295119440.48705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4547105143.286368</v>
+        <v>4522223525.273165</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1169390291416055</v>
+        <v>0.1063846491991932</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0503806845050957</v>
+        <v>0.05131487976580452</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2273552600.589116</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1563023414.427242</v>
+        <v>1978039462.700715</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1520239842081986</v>
+        <v>0.1248529040373211</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0365892299988518</v>
+        <v>0.04015240048092156</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>781511655.6743498</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2624345457.670835</v>
+        <v>3269567263.560897</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09554254670242361</v>
+        <v>0.06783091163088857</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03216841837692573</v>
+        <v>0.04207318712055221</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>94</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1312172681.393746</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3608165395.577384</v>
+        <v>5175013436.620681</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1506521100331377</v>
+        <v>0.1346915925000038</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02386814314994986</v>
+        <v>0.02238149781591453</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>120</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1804082699.626702</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2045343394.471003</v>
+        <v>1604271756.843767</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0971220181138366</v>
+        <v>0.09554965148538856</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04102926367573653</v>
+        <v>0.04114377961764532</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1022671636.282452</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2418572597.390689</v>
+        <v>2417307722.118399</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06857720645281076</v>
+        <v>0.09989851442882877</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03287689266479608</v>
+        <v>0.05056920054004321</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1209286347.938281</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2675786335.474137</v>
+        <v>3177724244.687788</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1157558302891642</v>
+        <v>0.1600654330085117</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02706600085086</v>
+        <v>0.03067782688460928</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>112</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1337893261.182163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1747714036.380227</v>
+        <v>1717140731.441048</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1378495437228396</v>
+        <v>0.1216857673648432</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03797073679044451</v>
+        <v>0.03470348742461523</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>873857006.0326053</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4561934168.103108</v>
+        <v>4685682933.978117</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1042924011439595</v>
+        <v>0.1073132457021185</v>
       </c>
       <c r="G76" t="n">
-        <v>0.027209667570636</v>
+        <v>0.02508373485528424</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2280967092.337457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1627435699.566381</v>
+        <v>1715362684.06592</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1799818572618167</v>
+        <v>0.1142094671003845</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02102570892042217</v>
+        <v>0.02122752659182277</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>813717856.2562555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3939626456.900302</v>
+        <v>3112246377.758706</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1330972172671739</v>
+        <v>0.09636014743436869</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04382375959822329</v>
+        <v>0.05010620588808772</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>114</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1969813198.512536</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1890140011.548155</v>
+        <v>1865618331.311043</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1741619051198643</v>
+        <v>0.1455893910924255</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03539432572565519</v>
+        <v>0.03776727795981988</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>945070108.2287968</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5019675239.003821</v>
+        <v>3929570877.466304</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09303546760978441</v>
+        <v>0.07550602809311711</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02408228019086446</v>
+        <v>0.03808542194774757</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2509837669.679547</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5069792651.212712</v>
+        <v>3613400827.61411</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09122097567932261</v>
+        <v>0.1245105803427755</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02686364975755974</v>
+        <v>0.03222818134451108</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>74</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2534896328.55211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4884940650.794865</v>
+        <v>3507558439.057503</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2152555033684661</v>
+        <v>0.1815257158108076</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02247169111121545</v>
+        <v>0.02112867762445752</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2442470315.751832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1924126846.223878</v>
+        <v>2230655512.246322</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1147879193590396</v>
+        <v>0.146299890783857</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04475447279597076</v>
+        <v>0.02777061602994063</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>962063398.9873531</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2048135178.296863</v>
+        <v>1623332617.836481</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1054688768242875</v>
+        <v>0.1106343391532217</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05179820579111141</v>
+        <v>0.03487610594867242</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1024067587.156524</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3278020412.768595</v>
+        <v>2995591196.203085</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1739392135598254</v>
+        <v>0.1536104733226266</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04043602073605045</v>
+        <v>0.04110131851164599</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>124</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1639010297.236455</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2707740204.34011</v>
+        <v>2153773967.868491</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1228315355171967</v>
+        <v>0.14542073503041</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02432971098406093</v>
+        <v>0.01923504853661112</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1353870228.226342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1200169506.136913</v>
+        <v>1341848588.180642</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1332221846962116</v>
+        <v>0.1469790978125909</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03209223643532132</v>
+        <v>0.04275242308663697</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>600084808.6951536</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3223939165.333833</v>
+        <v>3402797710.913355</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1427055435780396</v>
+        <v>0.1226716769044076</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0359651379201278</v>
+        <v>0.03428747615783398</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>130</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1611969635.246004</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2410485713.334421</v>
+        <v>3316649587.215641</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1152972341410402</v>
+        <v>0.155673217663323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0325600916189366</v>
+        <v>0.0348348223762724</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1205242938.008878</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1312969010.884274</v>
+        <v>1853167684.347101</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1207747062008912</v>
+        <v>0.09194097476503733</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04668996264515415</v>
+        <v>0.03961979836820866</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>656484449.9269102</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1600881895.428231</v>
+        <v>1533712841.627295</v>
       </c>
       <c r="F91" t="n">
-        <v>0.172736377083807</v>
+        <v>0.1221656331763347</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05357719114317495</v>
+        <v>0.04474417787459972</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>800440973.1900855</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2034204011.507563</v>
+        <v>2770652234.078074</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011423801938763</v>
+        <v>0.07630929883635952</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03562439543802122</v>
+        <v>0.0348416569837899</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1017101954.501704</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4045043823.662787</v>
+        <v>4970230234.053515</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1136783064800529</v>
+        <v>0.1201815364475947</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03408204237751331</v>
+        <v>0.03724036163550921</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2022521909.55156</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2433713024.585852</v>
+        <v>1978152204.148201</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1416389818331411</v>
+        <v>0.1042137156387537</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0290291779962672</v>
+        <v>0.03561714263576195</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1216856567.090485</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2271647036.577741</v>
+        <v>3242252096.871179</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1224669382994314</v>
+        <v>0.09286296663057028</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04446620771596697</v>
+        <v>0.04235249342143144</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>79</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1135823570.975932</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1941681957.164135</v>
+        <v>1622049489.723351</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0936390887332413</v>
+        <v>0.08943173650243254</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03519032149582878</v>
+        <v>0.03707761755430359</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>970840971.7856808</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5314193410.817682</v>
+        <v>3811714170.724277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1666619606970118</v>
+        <v>0.175573255681346</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02922327705276065</v>
+        <v>0.02398325874565582</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>105</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2657096867.47768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3601736911.69979</v>
+        <v>3699002371.103477</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08466819456461733</v>
+        <v>0.1210714853530624</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02918333258070806</v>
+        <v>0.02249729892951661</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1800868481.388521</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2526800322.168569</v>
+        <v>3108073178.682708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1165499366176043</v>
+        <v>0.1473093434311488</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03546163253909229</v>
+        <v>0.03065780328918689</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>103</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1263400112.732031</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3337594975.627227</v>
+        <v>3311605139.560163</v>
       </c>
       <c r="F100" t="n">
-        <v>0.149419643791795</v>
+        <v>0.1536818952426852</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02568626292535657</v>
+        <v>0.02396643910143637</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>101</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1668797505.621201</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2340535246.028043</v>
+        <v>3570446800.875629</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2097392897178994</v>
+        <v>0.15604307022962</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05038985207574932</v>
+        <v>0.05082464433188827</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>132</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1170267624.900892</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_329.xlsx
+++ b/output/fit_clients/fit_round_329.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2213358249.800193</v>
+        <v>2261693193.870937</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07476639632959112</v>
+        <v>0.07975946651120762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03972076727602212</v>
+        <v>0.03324825565324858</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2445650379.696314</v>
+        <v>2280415880.143374</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1436447724146024</v>
+        <v>0.1617052968022029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04144994858908232</v>
+        <v>0.0434219895955623</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3622562041.073387</v>
+        <v>3992619489.438415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.117052283369847</v>
+        <v>0.1451389407849411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02986360814027378</v>
+        <v>0.03587239363173537</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4033722291.695869</v>
+        <v>3487898395.266665</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07623222150435505</v>
+        <v>0.1030101229502209</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04505946487825815</v>
+        <v>0.03919857417367104</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2613503383.272114</v>
+        <v>1819672892.857169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0913632937330877</v>
+        <v>0.09340948043504313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0349356439188712</v>
+        <v>0.04326283675150667</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2865808039.998785</v>
+        <v>2578367612.800821</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09977830756270804</v>
+        <v>0.09316277893357665</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03163940984214722</v>
+        <v>0.04647080924233521</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2690713860.713738</v>
+        <v>2845728991.445977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1641979545577689</v>
+        <v>0.158062599470104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02565383074592825</v>
+        <v>0.03292315843246017</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2192979762.439265</v>
+        <v>1930842362.572661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1545611355573214</v>
+        <v>0.1688905986296603</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03640066621247043</v>
+        <v>0.02410262645534381</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3787377717.060093</v>
+        <v>3660415332.718363</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2119333654438724</v>
+        <v>0.1647197152606609</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03484628829063879</v>
+        <v>0.04729048229175047</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4217561616.769959</v>
+        <v>2635471606.691633</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1805799913101651</v>
+        <v>0.1331594070900943</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04966998203715561</v>
+        <v>0.04860080870028614</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2164130694.364522</v>
+        <v>2914053906.011094</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1768037854439267</v>
+        <v>0.145944132436933</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04134938826612269</v>
+        <v>0.03781646527072357</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3791615650.289938</v>
+        <v>4773167956.263639</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08361955879750149</v>
+        <v>0.09937918286209428</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02735629354293606</v>
+        <v>0.02808162942169001</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3594470061.798978</v>
+        <v>2620569987.436358</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1245692903887393</v>
+        <v>0.1578044518627682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04267711655123162</v>
+        <v>0.03783403804298723</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1386516590.133766</v>
+        <v>1688191754.143538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08258639486401022</v>
+        <v>0.09715826305784533</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04661652415875965</v>
+        <v>0.03017111189652402</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2740238670.413317</v>
+        <v>2559945832.902528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1104876923591279</v>
+        <v>0.1103551933828545</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03321859050448905</v>
+        <v>0.04010786362017432</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3488169810.794722</v>
+        <v>4661848823.767591</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1661153437689423</v>
+        <v>0.168793828536294</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04731122238949875</v>
+        <v>0.03931063907818716</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3680845935.420372</v>
+        <v>3606188175.852946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1255972255667024</v>
+        <v>0.1529498140970876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0254321873976135</v>
+        <v>0.02665519301398291</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293957451.677819</v>
+        <v>1329866719.609919</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1366051251040449</v>
+        <v>0.1655910665272206</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02202990342930444</v>
+        <v>0.02376122585643355</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2079415378.867492</v>
+        <v>2748619630.01226</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1499597607461387</v>
+        <v>0.1536490314576023</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02054640853114812</v>
+        <v>0.02668702099850916</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2157583860.725431</v>
+        <v>2314449548.911345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07376024138824537</v>
+        <v>0.06599183548142751</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03621904838436451</v>
+        <v>0.03433071381300891</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2480642498.039685</v>
+        <v>3676156627.624154</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1326853967226184</v>
+        <v>0.1065352106880398</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04646669809844467</v>
+        <v>0.05637042938688354</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1327617727.05174</v>
+        <v>1495838565.670423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.116915406918162</v>
+        <v>0.1808463019258514</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04198593783149872</v>
+        <v>0.04890912743973103</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4025563757.719267</v>
+        <v>3284856766.526379</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1408746477832544</v>
+        <v>0.1310689037173021</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02710761593654941</v>
+        <v>0.03489041964612064</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>962065606.9773293</v>
+        <v>1027100760.68607</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09651741324775114</v>
+        <v>0.1121330081521891</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02425669359937762</v>
+        <v>0.02826798353325546</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1316914330.242711</v>
+        <v>1004408393.399468</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1142041456924944</v>
+        <v>0.08821412258490384</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03907923136613296</v>
+        <v>0.03320543683587981</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3638281607.178058</v>
+        <v>4070352816.698034</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1377851754083682</v>
+        <v>0.1071297896917559</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01930897198386318</v>
+        <v>0.02403137943464225</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2464364381.56992</v>
+        <v>3015567967.79801</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1071860758306344</v>
+        <v>0.1403827242962686</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0438522853994724</v>
+        <v>0.04286669254839731</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5888763513.43593</v>
+        <v>4051109809.249748</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1128052886742485</v>
+        <v>0.0911397562814445</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04424507128826372</v>
+        <v>0.03617630617480162</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2092159749.133685</v>
+        <v>2242468371.753049</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133995102739631</v>
+        <v>0.1391534617671032</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03933998539595408</v>
+        <v>0.03672602504721816</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1389817077.934195</v>
+        <v>972565541.0559764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09805247360405425</v>
+        <v>0.1124625905564421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03386807673936217</v>
+        <v>0.03618645681658875</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1417846323.726593</v>
+        <v>1277587904.686796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07495726865756068</v>
+        <v>0.08299090945954198</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02756280198730678</v>
+        <v>0.03502100448176505</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3080696641.71869</v>
+        <v>2669191857.004588</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2042656400024227</v>
+        <v>0.1382317796003205</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05128427404658022</v>
+        <v>0.04689262357904514</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1248969283.931896</v>
+        <v>983543731.6849298</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08858343692890838</v>
+        <v>0.09329028946735524</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0264090475460981</v>
+        <v>0.02293832828673752</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1023682186.223086</v>
+        <v>1031630402.869643</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09368449968793557</v>
+        <v>0.09109630560984314</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03138235605586368</v>
+        <v>0.04462923085220474</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2060880624.546601</v>
+        <v>2372722794.15338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.172528363181544</v>
+        <v>0.168078166030028</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02413947910622183</v>
+        <v>0.0280057765836874</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2149320949.325511</v>
+        <v>2714165309.486109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1113453983953147</v>
+        <v>0.1090929194751229</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02778653646541844</v>
+        <v>0.03358519151598181</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1513235251.400734</v>
+        <v>1460489832.342972</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09176527845850681</v>
+        <v>0.1007848682839147</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02578138165233396</v>
+        <v>0.03207343851789218</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1692265928.156374</v>
+        <v>2221797549.564046</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1804993112188172</v>
+        <v>0.1462687643916369</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02531236925051511</v>
+        <v>0.02383539950030601</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1450721768.598969</v>
+        <v>1525550178.306375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1167941327035142</v>
+        <v>0.1376291279823536</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05373711833960639</v>
+        <v>0.03817294526628955</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2160271403.915968</v>
+        <v>2582728456.345386</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1218321375976228</v>
+        <v>0.1016459810226654</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03097138092532246</v>
+        <v>0.04283186308694144</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2778953236.995067</v>
+        <v>3220050260.526048</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09587652257114493</v>
+        <v>0.1178630134510461</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04514565142485165</v>
+        <v>0.03130574194895037</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2449719255.394577</v>
+        <v>2852931185.607003</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1982915440012751</v>
+        <v>0.1278259843983039</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01924492527041909</v>
+        <v>0.02019221195168672</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1443204593.563287</v>
+        <v>1794035718.18291</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07974040789801361</v>
+        <v>0.1005777768713474</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03660567692223233</v>
+        <v>0.02442026637637977</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1652718522.66507</v>
+        <v>1530974787.358943</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1189990969815351</v>
+        <v>0.1692011032979268</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04247666100438008</v>
+        <v>0.04489379187587342</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5327016655.270992</v>
+        <v>3553999677.444629</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1505682080118049</v>
+        <v>0.1773921435739046</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04494576394117043</v>
+        <v>0.05523103530238829</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3321425214.801858</v>
+        <v>4433524794.94751</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1729517029806865</v>
+        <v>0.2023701269462098</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04756600642579017</v>
+        <v>0.04739021016917432</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3752665985.240535</v>
+        <v>4520374973.407765</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1041182183460473</v>
+        <v>0.1039653949693214</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02593085083261417</v>
+        <v>0.03578847338837889</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1686248591.002317</v>
+        <v>1987004679.252859</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1919035328320229</v>
+        <v>0.1328223042518825</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03614984154108808</v>
+        <v>0.02937846389854152</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3564712682.674002</v>
+        <v>3921214769.652482</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1353222107217073</v>
+        <v>0.155159533832202</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03666062864949</v>
+        <v>0.04399552265705606</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>977673208.3384858</v>
+        <v>974719069.2370467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1775585848730641</v>
+        <v>0.148367081201938</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03966784602219657</v>
+        <v>0.04498886769278405</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3563718547.043702</v>
+        <v>4086133919.714698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1013167543708525</v>
+        <v>0.08775182595825767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05506857956812064</v>
+        <v>0.04363075716221997</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3690985947.764319</v>
+        <v>2849152432.704792</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1504614021816517</v>
+        <v>0.1705438085661619</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03191095220572535</v>
+        <v>0.02365624389654132</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4094207339.302459</v>
+        <v>4693774804.697644</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1385337118831022</v>
+        <v>0.1516869773465821</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04960283940053326</v>
+        <v>0.03192008932778521</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4842836047.560658</v>
+        <v>3266471731.569151</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1982436054318394</v>
+        <v>0.1632508895215342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02287760291121045</v>
+        <v>0.02530416040202915</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1847387002.143098</v>
+        <v>1574146093.744047</v>
       </c>
       <c r="F56" t="n">
-        <v>0.107321813268922</v>
+        <v>0.1460555356124559</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04627679178824911</v>
+        <v>0.03917649875638922</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4395226801.12219</v>
+        <v>3407427587.790398</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1828922776454</v>
+        <v>0.127952030981514</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02535903128378234</v>
+        <v>0.02185776311460834</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1516620768.029288</v>
+        <v>1397570340.032734</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1481019997163024</v>
+        <v>0.1315058934396278</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02639569764547169</v>
+        <v>0.03567555510693907</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3309312248.412707</v>
+        <v>3700423361.710287</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09930760697478512</v>
+        <v>0.1177647917522923</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03914819087507622</v>
+        <v>0.04824444630551446</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3239112146.155176</v>
+        <v>3257804032.148056</v>
       </c>
       <c r="F60" t="n">
-        <v>0.14258955673722</v>
+        <v>0.1571032822993765</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03029523569385101</v>
+        <v>0.02074895154810145</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2703341843.624185</v>
+        <v>2357663642.581791</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1437485470113414</v>
+        <v>0.1616828482714113</v>
       </c>
       <c r="G61" t="n">
-        <v>0.030947485715852</v>
+        <v>0.02462162551749753</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1697026928.696903</v>
+        <v>1522359519.025131</v>
       </c>
       <c r="F62" t="n">
-        <v>0.135097905806221</v>
+        <v>0.1367223750511039</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04512891346518985</v>
+        <v>0.04172640504443487</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4847408411.536966</v>
+        <v>4661485759.293749</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09483997444325434</v>
+        <v>0.07966451238591513</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03283517396906138</v>
+        <v>0.03154058880272918</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4224264888.371425</v>
+        <v>3366856999.737437</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1632880931028152</v>
+        <v>0.160666004269001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02723131972260845</v>
+        <v>0.02916938316616711</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5247734391.537582</v>
+        <v>4892717338.836266</v>
       </c>
       <c r="F65" t="n">
-        <v>0.142376723307215</v>
+        <v>0.1173362129340662</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02480113991520879</v>
+        <v>0.03051226224321015</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5260361900.336392</v>
+        <v>4582605836.220012</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1536232866347336</v>
+        <v>0.1026662809287908</v>
       </c>
       <c r="G66" t="n">
-        <v>0.048543380214277</v>
+        <v>0.03887271774569714</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3310938797.077982</v>
+        <v>3193545872.520399</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0809036655130131</v>
+        <v>0.06976768092639671</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0334087303910957</v>
+        <v>0.03361117858116012</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4522223525.273165</v>
+        <v>4938087944.239878</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1063846491991932</v>
+        <v>0.1404940729139435</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05131487976580452</v>
+        <v>0.04601956214359216</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1978039462.700715</v>
+        <v>1547594162.716718</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1248529040373211</v>
+        <v>0.16183545334623</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04015240048092156</v>
+        <v>0.05568879423896198</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3269567263.560897</v>
+        <v>3034372009.408169</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06783091163088857</v>
+        <v>0.08588275530454867</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04207318712055221</v>
+        <v>0.03495412311722797</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5175013436.620681</v>
+        <v>3448017463.614035</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1346915925000038</v>
+        <v>0.1383139802136148</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02238149781591453</v>
+        <v>0.03401608302085359</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1604271756.843767</v>
+        <v>1515229801.624995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09554965148538856</v>
+        <v>0.07245318135390315</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04114377961764532</v>
+        <v>0.04035141005768104</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2417307722.118399</v>
+        <v>2481630139.955028</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09989851442882877</v>
+        <v>0.09066335047466639</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05056920054004321</v>
+        <v>0.04847837833112979</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3177724244.687788</v>
+        <v>2885010895.581815</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1600654330085117</v>
+        <v>0.134252344531278</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03067782688460928</v>
+        <v>0.03407873561244383</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1717140731.441048</v>
+        <v>2073304821.207138</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1216857673648432</v>
+        <v>0.1653349304581274</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03470348742461523</v>
+        <v>0.02967581439834885</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4685682933.978117</v>
+        <v>3585399356.127987</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1073132457021185</v>
+        <v>0.09877041615621944</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02508373485528424</v>
+        <v>0.03362402845232326</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1715362684.06592</v>
+        <v>2078621418.242653</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1142094671003845</v>
+        <v>0.1186229186550603</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02122752659182277</v>
+        <v>0.02772829402746064</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3112246377.758706</v>
+        <v>4204326059.841641</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09636014743436869</v>
+        <v>0.1129996849178559</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05010620588808772</v>
+        <v>0.04271263351604316</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1865618331.311043</v>
+        <v>1688985341.276543</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1455893910924255</v>
+        <v>0.1396879192302168</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03776727795981988</v>
+        <v>0.02625953721209461</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3929570877.466304</v>
+        <v>4417069310.589593</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07550602809311711</v>
+        <v>0.08022444806282307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03808542194774757</v>
+        <v>0.03643350123702159</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3613400827.61411</v>
+        <v>4412249826.162318</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1245105803427755</v>
+        <v>0.1074848195418194</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03222818134451108</v>
+        <v>0.02756616642202065</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3507558439.057503</v>
+        <v>3641889037.885091</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1815257158108076</v>
+        <v>0.138818817939113</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02112867762445752</v>
+        <v>0.02211481601062432</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2230655512.246322</v>
+        <v>1919718482.126231</v>
       </c>
       <c r="F83" t="n">
-        <v>0.146299890783857</v>
+        <v>0.1254362418965596</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02777061602994063</v>
+        <v>0.04266826036354408</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1623332617.836481</v>
+        <v>2125442106.640413</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1106343391532217</v>
+        <v>0.1141696935845832</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03487610594867242</v>
+        <v>0.03828904496721677</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2995591196.203085</v>
+        <v>3079492134.882327</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1536104733226266</v>
+        <v>0.115179239996505</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04110131851164599</v>
+        <v>0.05187820709677883</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2153773967.868491</v>
+        <v>1827727359.105211</v>
       </c>
       <c r="F86" t="n">
-        <v>0.14542073503041</v>
+        <v>0.1400422348446403</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01923504853661112</v>
+        <v>0.02039068597510578</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1341848588.180642</v>
+        <v>1080762276.367198</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1469790978125909</v>
+        <v>0.1904589767100171</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04275242308663697</v>
+        <v>0.02773283601327965</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3402797710.913355</v>
+        <v>2613506038.036318</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1226716769044076</v>
+        <v>0.1440406241419702</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03428747615783398</v>
+        <v>0.03575599910774303</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3316649587.215641</v>
+        <v>2341335844.115241</v>
       </c>
       <c r="F89" t="n">
-        <v>0.155673217663323</v>
+        <v>0.1300643664899896</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0348348223762724</v>
+        <v>0.03752810376614298</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1853167684.347101</v>
+        <v>1595527402.171539</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09194097476503733</v>
+        <v>0.0905473301926091</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03961979836820866</v>
+        <v>0.03751798424024037</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1533712841.627295</v>
+        <v>1833875796.619226</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1221656331763347</v>
+        <v>0.1597765766891761</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04474417787459972</v>
+        <v>0.05275852709801651</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2770652234.078074</v>
+        <v>2354139213.229925</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07630929883635952</v>
+        <v>0.09395539569426696</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0348416569837899</v>
+        <v>0.03628015824888805</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4970230234.053515</v>
+        <v>4678297820.456545</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1201815364475947</v>
+        <v>0.09123834529655445</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03724036163550921</v>
+        <v>0.04566786214716415</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1978152204.148201</v>
+        <v>1962950045.81168</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1042137156387537</v>
+        <v>0.1093611761392734</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03561714263576195</v>
+        <v>0.03027507088315054</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3242252096.871179</v>
+        <v>2045264127.61407</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09286296663057028</v>
+        <v>0.09043796992568834</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04235249342143144</v>
+        <v>0.04419772258560219</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1622049489.723351</v>
+        <v>2129311420.823286</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08943173650243254</v>
+        <v>0.1319962179056792</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03707761755430359</v>
+        <v>0.02895448791206824</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3811714170.724277</v>
+        <v>4955546754.513985</v>
       </c>
       <c r="F97" t="n">
-        <v>0.175573255681346</v>
+        <v>0.1591836823332378</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02398325874565582</v>
+        <v>0.02762026878429762</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3699002371.103477</v>
+        <v>3079845117.509056</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1210714853530624</v>
+        <v>0.1277004617332048</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02249729892951661</v>
+        <v>0.0305495490144474</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3108073178.682708</v>
+        <v>2908402052.558435</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1473093434311488</v>
+        <v>0.1125122556171727</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03065780328918689</v>
+        <v>0.02268771997407654</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3311605139.560163</v>
+        <v>3857688618.39989</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1536818952426852</v>
+        <v>0.1296945901991794</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02396643910143637</v>
+        <v>0.02071053392875204</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3570446800.875629</v>
+        <v>2642380833.902604</v>
       </c>
       <c r="F101" t="n">
-        <v>0.15604307022962</v>
+        <v>0.1554396432998699</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05082464433188827</v>
+        <v>0.04175014990620866</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_329.xlsx
+++ b/output/fit_clients/fit_round_329.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2261693193.870937</v>
+        <v>1533440245.413043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07975946651120762</v>
+        <v>0.1136102975258631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03324825565324858</v>
+        <v>0.0430525067978211</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2280415880.143374</v>
+        <v>1819897036.219229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1617052968022029</v>
+        <v>0.1446244460593191</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0434219895955623</v>
+        <v>0.03373135799011295</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3992619489.438415</v>
+        <v>5147002404.617415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1451389407849411</v>
+        <v>0.1257739139853156</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03587239363173537</v>
+        <v>0.03218993861846969</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>171</v>
+      </c>
+      <c r="J4" t="n">
+        <v>328</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70.03046962240066</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3487898395.266665</v>
+        <v>3886816092.851054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1030101229502209</v>
+        <v>0.09287090393393631</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03919857417367104</v>
+        <v>0.0402930290667833</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>131</v>
+      </c>
+      <c r="J5" t="n">
+        <v>329</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1819672892.857169</v>
+        <v>2386605591.063705</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09340948043504313</v>
+        <v>0.09134032182333883</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04326283675150667</v>
+        <v>0.05682253728453296</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2578367612.800821</v>
+        <v>2616024271.604798</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09316277893357665</v>
+        <v>0.08006894835076853</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04647080924233521</v>
+        <v>0.03029845333574334</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2845728991.445977</v>
+        <v>3500018006.356086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.158062599470104</v>
+        <v>0.1571857650042398</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03292315843246017</v>
+        <v>0.0268703138930445</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1930842362.572661</v>
+        <v>1726686632.687433</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1688905986296603</v>
+        <v>0.1870965136009996</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02410262645534381</v>
+        <v>0.02274181871888562</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3660415332.718363</v>
+        <v>5601217160.493998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1647197152606609</v>
+        <v>0.2057890239393861</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04729048229175047</v>
+        <v>0.04482924011194835</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>284</v>
+      </c>
+      <c r="J10" t="n">
+        <v>328</v>
+      </c>
+      <c r="K10" t="n">
+        <v>71.77329862493835</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2635471606.691633</v>
+        <v>3861337633.143543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1331594070900943</v>
+        <v>0.12420726294336</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04860080870028614</v>
+        <v>0.03990471734480265</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>133</v>
+      </c>
+      <c r="J11" t="n">
+        <v>329</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2914053906.011094</v>
+        <v>2340664255.549824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.145944132436933</v>
+        <v>0.1577497226147851</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03781646527072357</v>
+        <v>0.050417811928725</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4773167956.263639</v>
+        <v>5066116364.673875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09937918286209428</v>
+        <v>0.08787039517606025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02808162942169001</v>
+        <v>0.02751254598570724</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>171</v>
+      </c>
+      <c r="J13" t="n">
+        <v>329</v>
+      </c>
+      <c r="K13" t="n">
+        <v>74.13742057810182</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2620569987.436358</v>
+        <v>3689258430.66675</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1578044518627682</v>
+        <v>0.1270169630428093</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03783403804298723</v>
+        <v>0.03853317031848671</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1688191754.143538</v>
+        <v>1702720441.709466</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09715826305784533</v>
+        <v>0.09715592798419558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03017111189652402</v>
+        <v>0.0385978388461505</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2559945832.902528</v>
+        <v>1828901563.968845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1103551933828545</v>
+        <v>0.09467399551365051</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04010786362017432</v>
+        <v>0.03513251654288019</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4661848823.767591</v>
+        <v>3770987134.549996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.168793828536294</v>
+        <v>0.1098050994363161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03931063907818716</v>
+        <v>0.03697096406278454</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>154</v>
+      </c>
+      <c r="J17" t="n">
+        <v>329</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3606188175.852946</v>
+        <v>3745047154.394872</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1529498140970876</v>
+        <v>0.1789254065877022</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02665519301398291</v>
+        <v>0.02657449076232862</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1329866719.609919</v>
+        <v>1193734273.229092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1655910665272206</v>
+        <v>0.1412313776135352</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02376122585643355</v>
+        <v>0.01746934601508817</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2748619630.01226</v>
+        <v>1976263339.570857</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1536490314576023</v>
+        <v>0.1265879370219159</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02668702099850916</v>
+        <v>0.02650659297762732</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2314449548.911345</v>
+        <v>1750040371.529652</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06599183548142751</v>
+        <v>0.07024428843526037</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433071381300891</v>
+        <v>0.03366829581498235</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3676156627.624154</v>
+        <v>3502017066.651195</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1065352106880398</v>
+        <v>0.1016446183941341</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05637042938688354</v>
+        <v>0.03863294712128205</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" t="n">
+        <v>327</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1495838565.670423</v>
+        <v>1221042810.944955</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1808463019258514</v>
+        <v>0.1691590950848161</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04890912743973103</v>
+        <v>0.04247276779738152</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3284856766.526379</v>
+        <v>3110011726.191151</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1310689037173021</v>
+        <v>0.1112708263624261</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03489041964612064</v>
+        <v>0.03645661689529306</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>97</v>
+      </c>
+      <c r="J24" t="n">
+        <v>327</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1027100760.68607</v>
+        <v>1155637713.236269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1121330081521891</v>
+        <v>0.1191499820880754</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02826798353325546</v>
+        <v>0.02028653960427354</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1004408393.399468</v>
+        <v>1354353949.328263</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08821412258490384</v>
+        <v>0.07955864724820379</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03320543683587981</v>
+        <v>0.02602569031519274</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4070352816.698034</v>
+        <v>4482187133.447887</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1071297896917559</v>
+        <v>0.1357649175449087</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02403137943464225</v>
+        <v>0.02089371038163614</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>136</v>
+      </c>
+      <c r="J27" t="n">
+        <v>329</v>
+      </c>
+      <c r="K27" t="n">
+        <v>71.94592231433879</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3015567967.79801</v>
+        <v>2761913363.294897</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1403827242962686</v>
+        <v>0.09837137370974822</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04286669254839731</v>
+        <v>0.04454571425359149</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4051109809.249748</v>
+        <v>5697495497.881559</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0911397562814445</v>
+        <v>0.1145359572506665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03617630617480162</v>
+        <v>0.04021414606722357</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>301</v>
+      </c>
+      <c r="J29" t="n">
+        <v>328</v>
+      </c>
+      <c r="K29" t="n">
+        <v>70.23985335904825</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2242468371.753049</v>
+        <v>1787734766.5072</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1391534617671032</v>
+        <v>0.1216946028312104</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03672602504721816</v>
+        <v>0.02639276235935231</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>972565541.0559764</v>
+        <v>1272260106.361406</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1124625905564421</v>
+        <v>0.1039181437253172</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03618645681658875</v>
+        <v>0.04413589612302342</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1277587904.686796</v>
+        <v>1488723519.179622</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08299090945954198</v>
+        <v>0.08874307437382843</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03502100448176505</v>
+        <v>0.03853781387134372</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2669191857.004588</v>
+        <v>2289861832.658791</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1382317796003205</v>
+        <v>0.2046349220636364</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04689262357904514</v>
+        <v>0.05479574270750667</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>983543731.6849298</v>
+        <v>1016731847.122141</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09329028946735524</v>
+        <v>0.09689203802870612</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02293832828673752</v>
+        <v>0.02504913927879667</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1031630402.869643</v>
+        <v>837869583.3033093</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09109630560984314</v>
+        <v>0.09877303690788541</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04462923085220474</v>
+        <v>0.02901958869525423</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2372722794.15338</v>
+        <v>2779154866.989583</v>
       </c>
       <c r="F36" t="n">
-        <v>0.168078166030028</v>
+        <v>0.1657475603157982</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0280057765836874</v>
+        <v>0.01951930839299308</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2714165309.486109</v>
+        <v>2441701792.094171</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1090929194751229</v>
+        <v>0.06857008942732376</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03358519151598181</v>
+        <v>0.03945166484910786</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1460489832.342972</v>
+        <v>1423368237.942423</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1007848682839147</v>
+        <v>0.07881021284981558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03207343851789218</v>
+        <v>0.02793772429564187</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2221797549.564046</v>
+        <v>1586184392.503672</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1462687643916369</v>
+        <v>0.1916145610751759</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02383539950030601</v>
+        <v>0.02257509311392131</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1525550178.306375</v>
+        <v>1181577008.46723</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1376291279823536</v>
+        <v>0.1334917924895473</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03817294526628955</v>
+        <v>0.03699166920219632</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2582728456.345386</v>
+        <v>2624169563.02086</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1016459810226654</v>
+        <v>0.1464694727145088</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04283186308694144</v>
+        <v>0.0449344774516259</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3220050260.526048</v>
+        <v>4068308789.009418</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1178630134510461</v>
+        <v>0.1105070494091214</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03130574194895037</v>
+        <v>0.04630174577139251</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>138</v>
+      </c>
+      <c r="J42" t="n">
+        <v>329</v>
+      </c>
+      <c r="K42" t="n">
+        <v>74.38864506258237</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2852931185.607003</v>
+        <v>2978756976.589058</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1278259843983039</v>
+        <v>0.1918131774337925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02019221195168672</v>
+        <v>0.02073637911963468</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1794035718.18291</v>
+        <v>2357453463.676847</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1005777768713474</v>
+        <v>0.08926239293002473</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02442026637637977</v>
+        <v>0.02733891650457169</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1530974787.358943</v>
+        <v>1632697381.692171</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1692011032979268</v>
+        <v>0.1284556460757752</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04489379187587342</v>
+        <v>0.04269475737934716</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3553999677.444629</v>
+        <v>4384562549.741144</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1773921435739046</v>
+        <v>0.1249526398537747</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05523103530238829</v>
+        <v>0.04482076840312835</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>196</v>
+      </c>
+      <c r="J46" t="n">
+        <v>329</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4433524794.94751</v>
+        <v>3476051311.844917</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2023701269462098</v>
+        <v>0.1313173541767884</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04739021016917432</v>
+        <v>0.03873510425552072</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>147</v>
+      </c>
+      <c r="J47" t="n">
+        <v>328</v>
+      </c>
+      <c r="K47" t="n">
+        <v>42.15106155058924</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4520374973.407765</v>
+        <v>4406768837.045069</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1039653949693214</v>
+        <v>0.1046108192534028</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03578847338837889</v>
+        <v>0.03278441693540329</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>163</v>
+      </c>
+      <c r="J48" t="n">
+        <v>329</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1987004679.252859</v>
+        <v>1383738289.792435</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1328223042518825</v>
+        <v>0.1278360492327997</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02937846389854152</v>
+        <v>0.04488077602894856</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3921214769.652482</v>
+        <v>4082825126.463763</v>
       </c>
       <c r="F50" t="n">
-        <v>0.155159533832202</v>
+        <v>0.1246096776340423</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04399552265705606</v>
+        <v>0.0500210422925743</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>108</v>
+      </c>
+      <c r="J50" t="n">
+        <v>328</v>
+      </c>
+      <c r="K50" t="n">
+        <v>69.47131245027114</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974719069.2370467</v>
+        <v>1138557810.509732</v>
       </c>
       <c r="F51" t="n">
-        <v>0.148367081201938</v>
+        <v>0.1202700388349495</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04498886769278405</v>
+        <v>0.04545557349479213</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4086133919.714698</v>
+        <v>3232983554.461443</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08775182595825767</v>
+        <v>0.1021804179647884</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04363075716221997</v>
+        <v>0.05348026581659076</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>199</v>
+      </c>
+      <c r="J52" t="n">
+        <v>328</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39.4796675669529</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2849152432.704792</v>
+        <v>3449358122.320281</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1705438085661619</v>
+        <v>0.1240404862519379</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02365624389654132</v>
+        <v>0.0240229292496945</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4693774804.697644</v>
+        <v>3927185438.960093</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1516869773465821</v>
+        <v>0.1690055405401328</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03192008932778521</v>
+        <v>0.03839713132394482</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>172</v>
+      </c>
+      <c r="J54" t="n">
+        <v>329</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3266471731.569151</v>
+        <v>4880435626.631987</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1632508895215342</v>
+        <v>0.1598742208020151</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02530416040202915</v>
+        <v>0.02086293723785399</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>155</v>
+      </c>
+      <c r="J55" t="n">
+        <v>329</v>
+      </c>
+      <c r="K55" t="n">
+        <v>73.52564539296732</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1574146093.744047</v>
+        <v>1273768604.185537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1460555356124559</v>
+        <v>0.1511866058907566</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03917649875638922</v>
+        <v>0.05815996100973876</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3407427587.790398</v>
+        <v>3916644931.6142</v>
       </c>
       <c r="F57" t="n">
-        <v>0.127952030981514</v>
+        <v>0.1445382317467131</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02185776311460834</v>
+        <v>0.02156166528311507</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>134</v>
+      </c>
+      <c r="J57" t="n">
+        <v>329</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1397570340.032734</v>
+        <v>1887075047.640664</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1315058934396278</v>
+        <v>0.1833738101555909</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03567555510693907</v>
+        <v>0.03481667766664023</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3700423361.710287</v>
+        <v>4523865199.599832</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1177647917522923</v>
+        <v>0.09898787744433057</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04824444630551446</v>
+        <v>0.03406170006191777</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>159</v>
+      </c>
+      <c r="J59" t="n">
+        <v>328</v>
+      </c>
+      <c r="K59" t="n">
+        <v>69.59493482429258</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3257804032.148056</v>
+        <v>3113159778.711021</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1571032822993765</v>
+        <v>0.1894943756182549</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02074895154810145</v>
+        <v>0.03303092170091958</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>57</v>
+      </c>
+      <c r="J60" t="n">
+        <v>325</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2357663642.581791</v>
+        <v>2067937876.133527</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1616828482714113</v>
+        <v>0.1731117651296104</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02462162551749753</v>
+        <v>0.02137539394759019</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1522359519.025131</v>
+        <v>1880289227.259596</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1367223750511039</v>
+        <v>0.1662130567585068</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04172640504443487</v>
+        <v>0.03628410706269414</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4661485759.293749</v>
+        <v>4657655493.866595</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07966451238591513</v>
+        <v>0.07148439847001782</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03154058880272918</v>
+        <v>0.04144628153329378</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>160</v>
+      </c>
+      <c r="J63" t="n">
+        <v>328</v>
+      </c>
+      <c r="K63" t="n">
+        <v>69.98380556332219</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3366856999.737437</v>
+        <v>5208353578.671884</v>
       </c>
       <c r="F64" t="n">
-        <v>0.160666004269001</v>
+        <v>0.1216359956419983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02916938316616711</v>
+        <v>0.02977634260070719</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>162</v>
+      </c>
+      <c r="J64" t="n">
+        <v>329</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4892717338.836266</v>
+        <v>5873964287.671144</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1173362129340662</v>
+        <v>0.1282940933949709</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03051226224321015</v>
+        <v>0.0263763316722369</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>257</v>
+      </c>
+      <c r="J65" t="n">
+        <v>329</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4582605836.220012</v>
+        <v>5677235685.656404</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1026662809287908</v>
+        <v>0.103608223894548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03887271774569714</v>
+        <v>0.04923299300776268</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>162</v>
+      </c>
+      <c r="J66" t="n">
+        <v>329</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3193545872.520399</v>
+        <v>2486276242.286664</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06976768092639671</v>
+        <v>0.06919291280326612</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03361117858116012</v>
+        <v>0.04351912834508347</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4938087944.239878</v>
+        <v>4279466636.260397</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1404940729139435</v>
+        <v>0.1179322036843701</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04601956214359216</v>
+        <v>0.03669935580917979</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>178</v>
+      </c>
+      <c r="J68" t="n">
+        <v>329</v>
+      </c>
+      <c r="K68" t="n">
+        <v>71.78237468122637</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1547594162.716718</v>
+        <v>1670741927.141352</v>
       </c>
       <c r="F69" t="n">
-        <v>0.16183545334623</v>
+        <v>0.169107846829664</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05568879423896198</v>
+        <v>0.05514428597987172</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3034372009.408169</v>
+        <v>2568731410.255848</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08588275530454867</v>
+        <v>0.09801107954296397</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03495412311722797</v>
+        <v>0.0360523457621174</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3448017463.614035</v>
+        <v>4499461644.892221</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1383139802136148</v>
+        <v>0.1297581028022276</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03401608302085359</v>
+        <v>0.03190723640248908</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>243</v>
+      </c>
+      <c r="J71" t="n">
+        <v>328</v>
+      </c>
+      <c r="K71" t="n">
+        <v>71.43934451347162</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1515229801.624995</v>
+        <v>2048432056.540787</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07245318135390315</v>
+        <v>0.06834893512329658</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04035141005768104</v>
+        <v>0.05154977024973087</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2481630139.955028</v>
+        <v>2498131055.319816</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09066335047466639</v>
+        <v>0.08400663938157485</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04847837833112979</v>
+        <v>0.03281657119787136</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2885010895.581815</v>
+        <v>2506690733.19244</v>
       </c>
       <c r="F74" t="n">
-        <v>0.134252344531278</v>
+        <v>0.1348528206070693</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03407873561244383</v>
+        <v>0.02178292943728719</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>87</v>
+      </c>
+      <c r="J74" t="n">
+        <v>328</v>
+      </c>
+      <c r="K74" t="n">
+        <v>29.8245225474196</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2073304821.207138</v>
+        <v>2091529613.980486</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1653349304581274</v>
+        <v>0.1289735933218904</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02967581439834885</v>
+        <v>0.03256348553930647</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3585399356.127987</v>
+        <v>3590343145.748919</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09877041615621944</v>
+        <v>0.1045797762474954</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03362402845232326</v>
+        <v>0.02799352951147487</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>155</v>
+      </c>
+      <c r="J76" t="n">
+        <v>327</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2078621418.242653</v>
+        <v>1802909396.618491</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1186229186550603</v>
+        <v>0.1341813015059815</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02772829402746064</v>
+        <v>0.02079912042866875</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4204326059.841641</v>
+        <v>3225213335.958253</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1129996849178559</v>
+        <v>0.08499660088157168</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04271263351604316</v>
+        <v>0.03699043742138064</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>162</v>
+      </c>
+      <c r="J78" t="n">
+        <v>328</v>
+      </c>
+      <c r="K78" t="n">
+        <v>42.64811775307012</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1688985341.276543</v>
+        <v>1208650431.870153</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1396879192302168</v>
+        <v>0.1456584726114046</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02625953721209461</v>
+        <v>0.03022299258240517</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4417069310.589593</v>
+        <v>4477431905.381104</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08022444806282307</v>
+        <v>0.08091747468692173</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03643350123702159</v>
+        <v>0.02339484164872</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>161</v>
+      </c>
+      <c r="J80" t="n">
+        <v>328</v>
+      </c>
+      <c r="K80" t="n">
+        <v>55.3864206252287</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4412249826.162318</v>
+        <v>3890430670.012143</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1074848195418194</v>
+        <v>0.09147783157303649</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02756616642202065</v>
+        <v>0.02470997883699741</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>151</v>
+      </c>
+      <c r="J81" t="n">
+        <v>329</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3641889037.885091</v>
+        <v>5030000056.993622</v>
       </c>
       <c r="F82" t="n">
-        <v>0.138818817939113</v>
+        <v>0.1858586737821685</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02211481601062432</v>
+        <v>0.02856024011655896</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>236</v>
+      </c>
+      <c r="J82" t="n">
+        <v>329</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1919718482.126231</v>
+        <v>2291817998.102774</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1254362418965596</v>
+        <v>0.1495066102357497</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04266826036354408</v>
+        <v>0.04285171380451788</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2125442106.640413</v>
+        <v>1585450479.276479</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1141696935845832</v>
+        <v>0.09592051388554473</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03828904496721677</v>
+        <v>0.03745099902411304</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3079492134.882327</v>
+        <v>3215012156.448216</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115179239996505</v>
+        <v>0.1234177186933531</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05187820709677883</v>
+        <v>0.0388481380867261</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1827727359.105211</v>
+        <v>1783773893.815481</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1400422348446403</v>
+        <v>0.1267457603866923</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02039068597510578</v>
+        <v>0.02714606628490616</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1080762276.367198</v>
+        <v>1317295008.6981</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1904589767100171</v>
+        <v>0.1568700050629731</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02773283601327965</v>
+        <v>0.02876144153640357</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2613506038.036318</v>
+        <v>3715024073.700577</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1440406241419702</v>
+        <v>0.1662425377390988</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03575599910774303</v>
+        <v>0.03377516534186127</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2341335844.115241</v>
+        <v>3494399318.332994</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1300643664899896</v>
+        <v>0.1549371797241399</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03752810376614298</v>
+        <v>0.03813160193474711</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1595527402.171539</v>
+        <v>1332213355.378918</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0905473301926091</v>
+        <v>0.11674799296086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03751798424024037</v>
+        <v>0.0447329059435931</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1833875796.619226</v>
+        <v>1331103210.243008</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1597765766891761</v>
+        <v>0.1959291855911166</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05275852709801651</v>
+        <v>0.04196535616271242</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2354139213.229925</v>
+        <v>1963037890.73725</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09395539569426696</v>
+        <v>0.06883801087115896</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03628015824888805</v>
+        <v>0.04234469433379017</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4678297820.456545</v>
+        <v>3896644586.801484</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09123834529655445</v>
+        <v>0.09073989849657181</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04566786214716415</v>
+        <v>0.0511505272293955</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>150</v>
+      </c>
+      <c r="J93" t="n">
+        <v>328</v>
+      </c>
+      <c r="K93" t="n">
+        <v>59.4630665787482</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1962950045.81168</v>
+        <v>1549494986.004094</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093611761392734</v>
+        <v>0.1284705986564288</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03027507088315054</v>
+        <v>0.02883098920761216</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2045264127.61407</v>
+        <v>2030272725.801647</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09043796992568834</v>
+        <v>0.1370415484964073</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04419772258560219</v>
+        <v>0.0508138912586224</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2129311420.823286</v>
+        <v>2118791446.676626</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1319962179056792</v>
+        <v>0.1234415646322801</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02895448791206824</v>
+        <v>0.03131278199606224</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4955546754.513985</v>
+        <v>4944433583.864843</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1591836823332378</v>
+        <v>0.1526298405930795</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02762026878429762</v>
+        <v>0.023684988796209</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>168</v>
+      </c>
+      <c r="J97" t="n">
+        <v>329</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3079845117.509056</v>
+        <v>3316985058.104906</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1277004617332048</v>
+        <v>0.118053438680469</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0305495490144474</v>
+        <v>0.02715429556895544</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>82</v>
+      </c>
+      <c r="J98" t="n">
+        <v>328</v>
+      </c>
+      <c r="K98" t="n">
+        <v>45.30840911204119</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2908402052.558435</v>
+        <v>2934283938.01983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1125122556171727</v>
+        <v>0.1372449986879709</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02268771997407654</v>
+        <v>0.02949753949400424</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3857688618.39989</v>
+        <v>4468994068.63966</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1296945901991794</v>
+        <v>0.1464013006183642</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02071053392875204</v>
+        <v>0.02704232430673656</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>146</v>
+      </c>
+      <c r="J100" t="n">
+        <v>329</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2642380833.902604</v>
+        <v>3401074034.361215</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1554396432998699</v>
+        <v>0.1715122441187664</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04175014990620866</v>
+        <v>0.05664263240213841</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>30</v>
+      </c>
+      <c r="J101" t="n">
+        <v>328</v>
+      </c>
+      <c r="K101" t="n">
+        <v>61.05534780469996</v>
       </c>
     </row>
   </sheetData>
